--- a/data/trans_orig/P36BPD13_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD13_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{667C4D22-2339-4636-9C1E-68DDEA80BB3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{08CBF967-5645-44FA-A0F2-725F62A247DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{918A44FE-1A88-4F2C-B3D6-73FA93D88DD5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{069ED32B-AB44-450A-9DB6-7E041416EFD3}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="86">
   <si>
     <t>Población según si consumen preferentemente carne de pollo, pavo o conejo en vez de ternera, cerdo, hamburguesas o salchichas en 2023 (Tasa respuesta: 99,27%)</t>
   </si>
@@ -74,217 +74,223 @@
     <t>87,83%</t>
   </si>
   <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
   </si>
   <si>
     <t>88,22%</t>
   </si>
   <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
   </si>
   <si>
     <t>88,07%</t>
   </si>
   <si>
-    <t>86,49%</t>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
   </si>
   <si>
     <t>89,6%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
   </si>
   <si>
     <t>10,4%</t>
   </si>
   <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
+    <t>14,14%</t>
   </si>
   <si>
     <t>84,54%</t>
   </si>
   <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
   </si>
   <si>
     <t>88,28%</t>
   </si>
   <si>
-    <t>87,16%</t>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
   </si>
   <si>
     <t>86,52%</t>
   </si>
   <si>
-    <t>87,49%</t>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
   </si>
   <si>
     <t>15,46%</t>
   </si>
   <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
   </si>
   <si>
     <t>11,72%</t>
   </si>
   <si>
-    <t>12,84%</t>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
   </si>
   <si>
     <t>13,48%</t>
   </si>
   <si>
-    <t>12,51%</t>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -699,7 +705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96410BA9-DFC8-4E5C-9CD8-9DED5760603D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6D7CF00-2045-4D34-A34F-E4F271B96BD4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1151,10 +1157,10 @@
         <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>1481</v>
@@ -1163,13 +1169,13 @@
         <v>1203467</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1184,13 +1190,13 @@
         <v>97682</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>95</v>
@@ -1199,13 +1205,13 @@
         <v>68354</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="M11" s="7">
         <v>185</v>
@@ -1214,13 +1220,13 @@
         <v>166036</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1288,13 +1294,13 @@
         <v>2837434</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>4719</v>
@@ -1303,13 +1309,13 @@
         <v>3328748</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="M13" s="7">
         <v>7596</v>
@@ -1318,10 +1324,10 @@
         <v>6166182</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>75</v>
@@ -1357,10 +1363,10 @@
         <v>79</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M14" s="7">
         <v>1061</v>
@@ -1369,13 +1375,13 @@
         <v>960586</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1431,7 +1437,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36BPD13_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD13_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08CBF967-5645-44FA-A0F2-725F62A247DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB3EE741-19F7-434F-A649-EA1DA9A5FEEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{069ED32B-AB44-450A-9DB6-7E041416EFD3}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{2C06AFE6-921A-45E1-8CC5-0006F1FF01DE}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="88">
   <si>
     <t>Población según si consumen preferentemente carne de pollo, pavo o conejo en vez de ternera, cerdo, hamburguesas o salchichas en 2023 (Tasa respuesta: 99,27%)</t>
   </si>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,163 +134,169 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
   </si>
   <si>
     <t>88,03%</t>
   </si>
   <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
   </si>
   <si>
     <t>11,97%</t>
   </si>
   <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -705,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6D7CF00-2045-4D34-A34F-E4F271B96BD4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB35DB90-7894-408D-85C1-62D7FF8629A5}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -826,7 +832,7 @@
         <v>612</v>
       </c>
       <c r="D4" s="7">
-        <v>473062</v>
+        <v>450103</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -841,7 +847,7 @@
         <v>1267</v>
       </c>
       <c r="I4" s="7">
-        <v>732437</v>
+        <v>662404</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -856,7 +862,7 @@
         <v>1879</v>
       </c>
       <c r="N4" s="7">
-        <v>1205499</v>
+        <v>1112506</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -877,7 +883,7 @@
         <v>75</v>
       </c>
       <c r="D5" s="7">
-        <v>65518</v>
+        <v>61907</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -892,7 +898,7 @@
         <v>151</v>
       </c>
       <c r="I5" s="7">
-        <v>97769</v>
+        <v>87988</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -907,7 +913,7 @@
         <v>226</v>
       </c>
       <c r="N5" s="7">
-        <v>163287</v>
+        <v>149895</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -928,7 +934,7 @@
         <v>687</v>
       </c>
       <c r="D6" s="7">
-        <v>538580</v>
+        <v>512010</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -943,7 +949,7 @@
         <v>1418</v>
       </c>
       <c r="I6" s="7">
-        <v>830206</v>
+        <v>750392</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -958,7 +964,7 @@
         <v>2105</v>
       </c>
       <c r="N6" s="7">
-        <v>1368786</v>
+        <v>1262401</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -981,7 +987,7 @@
         <v>1680</v>
       </c>
       <c r="D7" s="7">
-        <v>1794009</v>
+        <v>1933458</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -996,7 +1002,7 @@
         <v>2556</v>
       </c>
       <c r="I7" s="7">
-        <v>1963207</v>
+        <v>1977766</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1011,7 +1017,7 @@
         <v>4236</v>
       </c>
       <c r="N7" s="7">
-        <v>3757217</v>
+        <v>3911224</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1032,7 +1038,7 @@
         <v>300</v>
       </c>
       <c r="D8" s="7">
-        <v>355514</v>
+        <v>344700</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1047,7 +1053,7 @@
         <v>350</v>
       </c>
       <c r="I8" s="7">
-        <v>275749</v>
+        <v>250109</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1062,7 +1068,7 @@
         <v>650</v>
       </c>
       <c r="N8" s="7">
-        <v>631263</v>
+        <v>594809</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1083,7 +1089,7 @@
         <v>1980</v>
       </c>
       <c r="D9" s="7">
-        <v>2149523</v>
+        <v>2278158</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1098,7 +1104,7 @@
         <v>2906</v>
       </c>
       <c r="I9" s="7">
-        <v>2238956</v>
+        <v>2227875</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1113,7 +1119,7 @@
         <v>4886</v>
       </c>
       <c r="N9" s="7">
-        <v>4388480</v>
+        <v>4506033</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1136,7 +1142,7 @@
         <v>585</v>
       </c>
       <c r="D10" s="7">
-        <v>570363</v>
+        <v>547872</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1151,31 +1157,31 @@
         <v>896</v>
       </c>
       <c r="I10" s="7">
-        <v>633104</v>
+        <v>586591</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>1481</v>
       </c>
       <c r="N10" s="7">
-        <v>1203467</v>
+        <v>1134463</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1187,46 +1193,46 @@
         <v>90</v>
       </c>
       <c r="D11" s="7">
-        <v>97682</v>
+        <v>94049</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>95</v>
       </c>
       <c r="I11" s="7">
-        <v>68354</v>
+        <v>62552</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>185</v>
       </c>
       <c r="N11" s="7">
-        <v>166036</v>
+        <v>156601</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1238,7 +1244,7 @@
         <v>675</v>
       </c>
       <c r="D12" s="7">
-        <v>668045</v>
+        <v>641921</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1253,7 +1259,7 @@
         <v>991</v>
       </c>
       <c r="I12" s="7">
-        <v>701458</v>
+        <v>649143</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1268,7 +1274,7 @@
         <v>1666</v>
       </c>
       <c r="N12" s="7">
-        <v>1369503</v>
+        <v>1291064</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1291,46 +1297,46 @@
         <v>2877</v>
       </c>
       <c r="D13" s="7">
-        <v>2837434</v>
+        <v>2931434</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>4719</v>
       </c>
       <c r="I13" s="7">
-        <v>3328748</v>
+        <v>3226761</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>7596</v>
       </c>
       <c r="N13" s="7">
-        <v>6166182</v>
+        <v>6158193</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1342,46 +1348,46 @@
         <v>465</v>
       </c>
       <c r="D14" s="7">
-        <v>518714</v>
+        <v>500655</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>596</v>
       </c>
       <c r="I14" s="7">
-        <v>441872</v>
+        <v>400649</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>1061</v>
       </c>
       <c r="N14" s="7">
-        <v>960586</v>
+        <v>901305</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1393,7 +1399,7 @@
         <v>3342</v>
       </c>
       <c r="D15" s="7">
-        <v>3356148</v>
+        <v>3432089</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1408,7 +1414,7 @@
         <v>5315</v>
       </c>
       <c r="I15" s="7">
-        <v>3770620</v>
+        <v>3627410</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1423,7 +1429,7 @@
         <v>8657</v>
       </c>
       <c r="N15" s="7">
-        <v>7126768</v>
+        <v>7059498</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1437,7 +1443,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
